--- a/bin-java/WEB-INF/resources/Java知识点整理.xlsx
+++ b/bin-java/WEB-INF/resources/Java知识点整理.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="java容器" sheetId="3" r:id="rId2"/>
+    <sheet name="java并发编程" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +123,10 @@
   </si>
   <si>
     <t>tomcat/servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,13 +211,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -226,6 +232,98 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="8331200" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133096</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="J.U.C.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="495300"/>
+          <a:ext cx="9150096" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +666,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -576,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -585,19 +683,19 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -605,25 +703,25 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -631,28 +729,28 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -660,22 +758,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
@@ -683,22 +781,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -709,22 +807,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -732,7 +830,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -761,4 +859,50 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/bin-java/WEB-INF/resources/Java知识点整理.xlsx
+++ b/bin-java/WEB-INF/resources/Java知识点整理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\JavaPrimer\bin-java\WEB-INF\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,26 +131,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://tony1966.myweb.hinet.net/java/core/collection.htm</t>
+  </si>
+  <si>
+    <t>包结构</t>
+  </si>
+  <si>
+    <t>整理归纳</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,7 +163,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,7 +172,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,7 +181,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -199,7 +209,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,8 +218,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,19 +229,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="无色" xfId="1" builtinId="28"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -238,16 +259,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,8 +285,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="533400"/>
-          <a:ext cx="8331200" cy="5410200"/>
+          <a:off x="7515225" y="438150"/>
+          <a:ext cx="8458200" cy="5686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="800100"/>
+          <a:ext cx="6715125" cy="4714875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,10 +719,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -863,23 +928,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -894,7 +970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin-java/WEB-INF/resources/Java知识点整理.xlsx
+++ b/bin-java/WEB-INF/resources/Java知识点整理.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\JavaPrimer\bin-java\WEB-INF\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,126 +31,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring/SpringMVC SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型和变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象、继承、封装、多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID原则</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型、对象类型、内存占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器结构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList和Array区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap和HashTable的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时异常和非运行时异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked异常和unchecked异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jprofile/Yourkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat/servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tony1966.myweb.hinet.net/java/core/collection.htm</t>
+  </si>
+  <si>
+    <t>包结构</t>
+  </si>
+  <si>
+    <t>整理归纳</t>
+  </si>
+  <si>
     <t>并发编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring/SpringMVC SSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向对象编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型和变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能分析工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象、继承、封装、多态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID原则</t>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修饰符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本类型、对象类型、内存占用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器结构图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayList和Array区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashMap和HashTable的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时异常和非运行时异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checked异常和unchecked异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jprofile/Yourkit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat/servlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tony1966.myweb.hinet.net/java/core/collection.htm</t>
-  </si>
-  <si>
-    <t>包结构</t>
-  </si>
-  <si>
-    <t>整理归纳</t>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概念、生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -163,7 +170,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,7 +179,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,7 +188,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,21 +233,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="无色" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -713,42 +720,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -760,21 +767,21 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
@@ -786,23 +793,23 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -815,17 +822,17 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -838,82 +845,97 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -930,23 +952,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>26</v>
+      <c r="A29" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin-java/WEB-INF/resources/Java知识点整理.xlsx
+++ b/bin-java/WEB-INF/resources/Java知识点整理.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="java容器" sheetId="3" r:id="rId2"/>
-    <sheet name="java并发编程" sheetId="2" r:id="rId3"/>
+    <sheet name="线程" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,137 +21,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring/SpringMVC SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型和变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象、继承、封装、多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID原则</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型、对象类型、内存占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器结构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时异常和非运行时异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked异常和unchecked异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jprofile/Yourkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat/servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tony1966.myweb.hinet.net/java/core/collection.htm</t>
+  </si>
+  <si>
+    <t>包结构</t>
+  </si>
+  <si>
+    <t>整理归纳</t>
+  </si>
+  <si>
+    <t>并发编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概念、生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得当前线程休眠（暂时停止执行mills毫秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并某个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让出CPU，给其他线程执行的机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于方法调用,Fig1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring/SpringMVC SSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向对象编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型和变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能分析工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象、继承、封装、多态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID原则</t>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修饰符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本类型、对象类型、内存占用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器结构图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayList和Array区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashMap和HashTable的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时异常和非运行时异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checked异常和unchecked异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jprofile/Yourkit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat/servlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tony1966.myweb.hinet.net/java/core/collection.htm</t>
-  </si>
-  <si>
-    <t>包结构</t>
-  </si>
-  <si>
-    <t>整理归纳</t>
-  </si>
-  <si>
-    <t>并发编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本概念、生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap/TreeMap/LinkedHashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用的遍历方法Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector/HashTable等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是旧的类，内部实现都是Synchronized的，慢一些，现在基本不用了。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +264,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,8 +306,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,8 +322,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="14">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -246,6 +345,11 @@
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="无色" xfId="1" builtinId="28"/>
   </cellStyles>
@@ -353,16 +457,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133096</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285496</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -385,8 +489,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="495300"/>
-          <a:ext cx="9150096" cy="6858000"/>
+          <a:off x="6286500" y="190500"/>
+          <a:ext cx="9289796" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="1384301"/>
+          <a:ext cx="4152900" cy="3929348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,42 +862,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -767,21 +910,21 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
+      <c r="A6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
@@ -793,149 +936,189 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="9">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -960,15 +1143,15 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -988,12 +1171,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/bin-java/WEB-INF/resources/Java知识点整理.xlsx
+++ b/bin-java/WEB-INF/resources/Java知识点整理.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="java容器" sheetId="3" r:id="rId2"/>
     <sheet name="线程" sheetId="2" r:id="rId3"/>
+    <sheet name="IO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读写文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jprofile/Yourkit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +213,18 @@
   </si>
   <si>
     <t>都是旧的类，内部实现都是Synchronized的，慢一些，现在基本不用了。</t>
+  </si>
+  <si>
+    <t>输入/输出流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的节点流和处理流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件流、缓冲流、数据流、转换流、Print流、Object流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,15 +336,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -862,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -881,7 +893,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -889,7 +901,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -898,7 +910,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -910,7 +922,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -918,13 +930,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
@@ -936,7 +948,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -944,42 +956,42 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
+      <c r="D14" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -992,7 +1004,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -1000,7 +1012,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1015,27 +1027,27 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
@@ -1048,77 +1060,89 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6"/>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1143,15 +1167,15 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1185,50 +1209,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1241,4 +1265,22 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>